--- a/data/trans_orig/Q02G_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q02G_R-Clase-trans_orig.xlsx
@@ -631,22 +631,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.839553995262775</v>
+        <v>1.76266573932334</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.42907192746252</v>
+        <v>1.386530240859994</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.393008146780579</v>
+        <v>2.359823865774556</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.048969734782366</v>
+        <v>2.068494294351755</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.405659357479289</v>
+        <v>2.374004022364963</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.991879244647695</v>
+        <v>1.964255741705017</v>
       </c>
     </row>
     <row r="6">
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.124741045780548</v>
+        <v>5.246549675757763</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.764944520654953</v>
+        <v>3.448733469467276</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.293152071221837</v>
+        <v>8.095379746091991</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.512241295160162</v>
+        <v>6.41564100937734</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.793526690139521</v>
+        <v>5.546738514827003</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.160750956904048</v>
+        <v>4.89874700699883</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.458843992146423</v>
+        <v>1.453368556249279</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>1.548813435690804</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.881834304161434</v>
+        <v>2.047286668716363</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.032182819976228</v>
+        <v>3.035128147003344</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>2.379807961516175</v>
+        <v>2.299953930548543</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.006565591591507</v>
+        <v>3.101339949719352</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.276634702425698</v>
+        <v>5.225143190320481</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>8</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.823942295019695</v>
+        <v>6.467818489883996</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.447325223298161</v>
+        <v>6.479742453025068</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>5.450888818535963</v>
+        <v>5.575805340902679</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>6.200400540953237</v>
+        <v>6.131975181690478</v>
       </c>
     </row>
     <row r="10">
@@ -772,7 +772,7 @@
         <v>2.255324215960941</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>2.158208777487947</v>
+        <v>2.158208777487946</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>3.545128658227008</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.120975809884076</v>
+        <v>1.279982012441326</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.539294672359432</v>
+        <v>1.55894611144006</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.150435846661414</v>
+        <v>2.176343633133142</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.095053116416012</v>
+        <v>2.03512524079489</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.058173698608441</v>
+        <v>2.023366793039641</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.967030822399943</v>
+        <v>3.018691288315959</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.839221921743009</v>
+        <v>2.911433678495237</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.702905539949632</v>
+        <v>4.720567575249476</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>16</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.73921892635751</v>
+        <v>3.755353089988741</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.310305696401703</v>
+        <v>5.792758369024011</v>
       </c>
     </row>
     <row r="13">
@@ -860,7 +860,7 @@
         <v>3.782899540335697</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.50592077608293</v>
+        <v>4.505920776082929</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>3.846546153944228</v>
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.923905553397134</v>
+        <v>2.952895030998854</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.87284593042882</v>
+        <v>2.932438167190058</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.95441607670155</v>
+        <v>2.93925906425723</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.507332676067443</v>
+        <v>3.42318340883333</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.120783406851902</v>
+        <v>3.175619630579794</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.633989834425714</v>
+        <v>3.467935240911195</v>
       </c>
     </row>
     <row r="15">
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.874506589911703</v>
+        <v>5.794636947024822</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.474071397167993</v>
+        <v>8.175290864107589</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.085610284146347</v>
+        <v>4.975269146688407</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.210693659761499</v>
+        <v>6.112439365234113</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>4.698932270405566</v>
+        <v>4.850356732462944</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>6.222079400811098</v>
+        <v>6.09561722630797</v>
       </c>
     </row>
     <row r="16">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>4.925398773514937</v>
+        <v>4.925398773514938</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>5.023077214094509</v>
@@ -942,13 +942,13 @@
         <v>3.562840988831314</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3.628614004760839</v>
+        <v>3.628614004760838</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>3.897213786477284</v>
+        <v>3.897213786477283</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>3.90875984308767</v>
+        <v>3.908759843087671</v>
       </c>
     </row>
     <row r="17">
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.356265149843573</v>
+        <v>3.5263586775229</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.925065469625685</v>
+        <v>3.051683062888899</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.819350880151501</v>
+        <v>2.873765549292601</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.880310854319642</v>
+        <v>2.87474164553339</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.217626371622694</v>
+        <v>3.168626613994584</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.117487311922947</v>
+        <v>3.101433862778437</v>
       </c>
     </row>
     <row r="18">
@@ -985,22 +985,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.475986634638468</v>
+        <v>6.50771547311174</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.48758740234551</v>
+        <v>7.738663765447499</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.607677101563441</v>
+        <v>4.661423259472094</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.974246002543948</v>
+        <v>4.960017348010572</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.871827127168658</v>
+        <v>4.775560920991066</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.066013145371468</v>
+        <v>5.120849304598045</v>
       </c>
     </row>
     <row r="19">
@@ -1024,10 +1024,10 @@
         <v>4.401264934482816</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4.278152816353092</v>
+        <v>4.278152816353093</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>4.323038315751198</v>
+        <v>4.323038315751197</v>
       </c>
       <c r="H19" s="5" t="n">
         <v>4.220848508783718</v>
@@ -1045,16 +1045,16 @@
         <v>1</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3.503411343817481</v>
+        <v>3.534831515764265</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3.3312671603053</v>
+        <v>3.276775589146423</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>3.424974902641011</v>
+        <v>3.405603866821181</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>3.262261348206034</v>
+        <v>3.300884930578234</v>
       </c>
     </row>
     <row r="21">
@@ -1069,16 +1069,16 @@
         <v>5.285714285714285</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.782634309940891</v>
+        <v>5.899650504671134</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7.032108373132255</v>
+        <v>6.742805367282199</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>5.655615871840999</v>
+        <v>5.619770776930294</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>6.437826380154934</v>
+        <v>6.528942893900394</v>
       </c>
     </row>
     <row r="22">
@@ -1102,13 +1102,13 @@
         <v>3.919920294438026</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4.055245954081813</v>
+        <v>4.055245954081812</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>3.821409297599535</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>3.924152506920917</v>
+        <v>3.924152506920918</v>
       </c>
     </row>
     <row r="23">
@@ -1119,22 +1119,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.928828834564606</v>
+        <v>2.895729127048899</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.830809593444266</v>
+        <v>2.824039725231824</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.472080697113826</v>
+        <v>3.417202572338819</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.485026476001431</v>
+        <v>3.511141197665297</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.400201718235318</v>
+        <v>3.418482249231752</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.4924252946298</v>
+        <v>3.438177536026691</v>
       </c>
     </row>
     <row r="24">
@@ -1145,22 +1145,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.349759112272706</v>
+        <v>4.360777909903164</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.929757563725275</v>
+        <v>5.020704576074951</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.574974297216627</v>
+        <v>4.510636829064141</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.872318555877765</v>
+        <v>4.820163976007276</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.35410500241367</v>
+        <v>4.272947283045969</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.614112734558454</v>
+        <v>4.629895637280924</v>
       </c>
     </row>
     <row r="25">
